--- a/data/trans_dic/P43E-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P43E-Edad-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1572009212288369</v>
+        <v>0.1555085706491379</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1073972196817088</v>
+        <v>0.1084611557217855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1624998080010117</v>
+        <v>0.169273845743513</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2932649649983199</v>
+        <v>0.278249671173024</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2246696894015248</v>
+        <v>0.2265010887445052</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5183885983191892</v>
+        <v>0.5174871147244448</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2257626982368244</v>
+        <v>0.2288053790023876</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1650666203454378</v>
+        <v>0.1671498754785321</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2025478749067613</v>
+        <v>0.1978917931727866</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3149907719864903</v>
+        <v>0.3136821261736902</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2492883630478558</v>
+        <v>0.2506110873116515</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.338338594778223</v>
+        <v>0.3364377792381316</v>
       </c>
     </row>
     <row r="10">
@@ -700,7 +700,7 @@
         <v>0.1999637966546133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.2753757500236955</v>
+        <v>0.2753757500236954</v>
       </c>
     </row>
     <row r="11">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2269882664748504</v>
+        <v>0.221341197528632</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1649039979569627</v>
+        <v>0.1662530844730487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2309879531847494</v>
+        <v>0.2322599442807743</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2995802732149286</v>
+        <v>0.2981383282832807</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2393361762838557</v>
+        <v>0.2358150816427134</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3264125484608901</v>
+        <v>0.3234147860533932</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2076578162615489</v>
+        <v>0.2013293621032998</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1199626114077731</v>
+        <v>0.1232406907587588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2704074303678545</v>
+        <v>0.2748693905376337</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2917885841772414</v>
+        <v>0.2841199925216524</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1888349848058232</v>
+        <v>0.1935537916905979</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3459684819655487</v>
+        <v>0.3521903854927417</v>
       </c>
     </row>
     <row r="16">
@@ -810,7 +810,7 @@
         <v>0.1401200927772697</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2220142882578277</v>
+        <v>0.2220142882578276</v>
       </c>
     </row>
     <row r="17">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.14412517288546</v>
+        <v>0.1442053640859848</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.09856390695196461</v>
+        <v>0.1019774269922307</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1881007132910234</v>
+        <v>0.187293659872109</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.232057358906109</v>
+        <v>0.2416800843802153</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1826053485726185</v>
+        <v>0.1836209613493922</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2608712452181668</v>
+        <v>0.2591054273902728</v>
       </c>
     </row>
     <row r="19">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08104000076460521</v>
+        <v>0.07783724157751598</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08140310770592241</v>
+        <v>0.08097431453101626</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1351861384682143</v>
+        <v>0.1413017268361532</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1881798399327083</v>
+        <v>0.1887473057398876</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1818549237137781</v>
+        <v>0.1794474338336821</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2126367199825777</v>
+        <v>0.2165433383157457</v>
       </c>
     </row>
     <row r="22">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07857405456021348</v>
+        <v>0.08399826808163403</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03500885407468552</v>
+        <v>0.03797605684994431</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.100626801169584</v>
+        <v>0.1044382553089617</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2283217451187891</v>
+        <v>0.2349930762680198</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1569030449061156</v>
+        <v>0.1573624628273142</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1807647009341359</v>
+        <v>0.181868687323176</v>
       </c>
     </row>
     <row r="25">
@@ -975,7 +975,7 @@
         <v>0.1639238534107192</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.2455428421916127</v>
+        <v>0.2455428421916128</v>
       </c>
     </row>
     <row r="26">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.210549895992461</v>
+        <v>0.2125407918798269</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1485794888341993</v>
+        <v>0.1474904516673259</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2281409855702751</v>
+        <v>0.2281909472224918</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2493403090201847</v>
+        <v>0.2486832966956492</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1817239435170573</v>
+        <v>0.1806743147308115</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2638892117461692</v>
+        <v>0.2636740845077846</v>
       </c>
     </row>
     <row r="28">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>26160</v>
+        <v>25879</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>17201</v>
+        <v>17371</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7788</v>
+        <v>8112</v>
       </c>
     </row>
     <row r="7">
@@ -1164,13 +1164,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>48803</v>
+        <v>46304</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>35983</v>
+        <v>36276</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24844</v>
+        <v>24801</v>
       </c>
     </row>
     <row r="8">
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>99641</v>
+        <v>100984</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>60663</v>
+        <v>61429</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>38797</v>
+        <v>37905</v>
       </c>
     </row>
     <row r="11">
@@ -1236,13 +1236,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>139022</v>
+        <v>138445</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>91616</v>
+        <v>92102</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>64807</v>
+        <v>64443</v>
       </c>
     </row>
     <row r="12">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>129140</v>
+        <v>125928</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>82612</v>
+        <v>83287</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>66942</v>
+        <v>67311</v>
       </c>
     </row>
     <row r="15">
@@ -1308,13 +1308,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>170440</v>
+        <v>169620</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>119900</v>
+        <v>118136</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>94597</v>
+        <v>93729</v>
       </c>
     </row>
     <row r="16">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>100213</v>
+        <v>97159</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>56649</v>
+        <v>58197</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>102972</v>
+        <v>104671</v>
       </c>
     </row>
     <row r="19">
@@ -1380,13 +1380,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>140813</v>
+        <v>137113</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>89172</v>
+        <v>91400</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>131746</v>
+        <v>134115</v>
       </c>
     </row>
     <row r="20">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>44691</v>
+        <v>44716</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>31622</v>
+        <v>32717</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>59083</v>
+        <v>58829</v>
       </c>
     </row>
     <row r="23">
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>71958</v>
+        <v>74942</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>58585</v>
+        <v>58911</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>81940</v>
+        <v>81385</v>
       </c>
     </row>
     <row r="24">
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>14426</v>
+        <v>13856</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>16461</v>
+        <v>16374</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>29160</v>
+        <v>30479</v>
       </c>
     </row>
     <row r="27">
@@ -1524,13 +1524,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>33498</v>
+        <v>33599</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>36773</v>
+        <v>36286</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>45866</v>
+        <v>46709</v>
       </c>
     </row>
     <row r="28">
@@ -1579,13 +1579,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>7987</v>
+        <v>8538</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4543</v>
+        <v>4928</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17069</v>
+        <v>17716</v>
       </c>
     </row>
     <row r="31">
@@ -1596,13 +1596,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>23208</v>
+        <v>23886</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>20362</v>
+        <v>20422</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>30663</v>
+        <v>30850</v>
       </c>
     </row>
     <row r="32">
@@ -1651,13 +1651,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>473532</v>
+        <v>478010</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>319992</v>
+        <v>317646</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>367196</v>
+        <v>367276</v>
       </c>
     </row>
     <row r="35">
@@ -1668,13 +1668,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>560773</v>
+        <v>559295</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>391374</v>
+        <v>389114</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>424733</v>
+        <v>424387</v>
       </c>
     </row>
     <row r="36">
